--- a/pred_ohlcv/54_21/2019-10-31 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>13782.68808517841</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>13047.37598517841</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,7 +548,7 @@
         <v>13536.42137768487</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -652,7 +652,7 @@
         <v>16262.30697255667</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>16262.30697255667</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16259.18287255667</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>16676.01027255667</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>18901.20067255667</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>18901.20067255667</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>16639.58957255667</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>16641.07287255667</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>16637.38287255667</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>16071.07597255667</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>13492.78677255667</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>11439.71507255667</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>16669.97967255667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>16656.95887255667</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>16438.76987255667</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>16002.81587255667</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>16261.79327255667</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>16237.57447255667</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>16099.52247255667</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>16099.52247255667</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>16099.52247255667</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>16047.16147255667</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>19136.38267255667</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>19715.87407255667</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>14259.50577255667</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>13642.21907255667</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-6660.360027443324</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-6660.360027443324</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-6660.360027443324</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6660.360027443324</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-8683.972027443324</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-8683.972027443324</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-8653.073423035608</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-8653.073423035608</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-8598.313423035608</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 TRUE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 TRUE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>13782.68808517841</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>13047.37598517841</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>13767.17777768487</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>13536.42137768487</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>13536.42137768487</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>16786.93007255667</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>17188.68907255667</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>16262.30697255667</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>16262.30697255667</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>16259.18287255667</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>16676.01027255667</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>18901.20067255667</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>18901.20067255667</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>16639.58957255667</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>16641.07287255667</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>16637.38287255667</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>16071.07597255667</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>13492.78677255667</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>11439.71507255667</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>16669.97967255667</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>16656.95887255667</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>16261.79327255667</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>16237.57447255667</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>16099.52247255667</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>16099.52247255667</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>16099.52247255667</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>16047.16147255667</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-6660.360027443324</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-6660.360027443324</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-8683.972027443324</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-8683.972027443324</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-8653.073423035608</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-8653.073423035608</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-8598.313423035608</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
